--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Itga3</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.17708244238246</v>
+        <v>1.250975</v>
       </c>
       <c r="H2">
-        <v>1.17708244238246</v>
+        <v>3.752925</v>
       </c>
       <c r="I2">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="J2">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.1686942107306</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N2">
-        <v>15.1686942107306</v>
+        <v>46.980431</v>
       </c>
       <c r="O2">
-        <v>0.753243867366462</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P2">
-        <v>0.753243867366462</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q2">
-        <v>17.85480362931946</v>
+        <v>19.59044822340834</v>
       </c>
       <c r="R2">
-        <v>17.85480362931946</v>
+        <v>176.314034010675</v>
       </c>
       <c r="S2">
-        <v>0.1714007347798539</v>
+        <v>0.1648794350039868</v>
       </c>
       <c r="T2">
-        <v>0.1714007347798539</v>
+        <v>0.1648794350039867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.17708244238246</v>
+        <v>1.250975</v>
       </c>
       <c r="H3">
-        <v>1.17708244238246</v>
+        <v>3.752925</v>
       </c>
       <c r="I3">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="J3">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.945362273403315</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N3">
-        <v>0.945362273403315</v>
+        <v>2.975427</v>
       </c>
       <c r="O3">
-        <v>0.04694460347001523</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P3">
-        <v>0.04694460347001523</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q3">
-        <v>1.112769333713809</v>
+        <v>1.240728263775</v>
       </c>
       <c r="R3">
-        <v>1.112769333713809</v>
+        <v>11.166554373975</v>
       </c>
       <c r="S3">
-        <v>0.0106822503007447</v>
+        <v>0.01044236317575731</v>
       </c>
       <c r="T3">
-        <v>0.0106822503007447</v>
+        <v>0.01044236317575731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.17708244238246</v>
+        <v>1.250975</v>
       </c>
       <c r="H4">
-        <v>1.17708244238246</v>
+        <v>3.752925</v>
       </c>
       <c r="I4">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="J4">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.02376987980892</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N4">
-        <v>4.02376987980892</v>
+        <v>0.264995</v>
       </c>
       <c r="O4">
-        <v>0.1998115291635227</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P4">
-        <v>0.1998115291635227</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q4">
-        <v>4.73630887771046</v>
+        <v>0.1105007067083333</v>
       </c>
       <c r="R4">
-        <v>4.73630887771046</v>
+        <v>0.994506360375</v>
       </c>
       <c r="S4">
-        <v>0.04546713806758683</v>
+        <v>0.0009300090473601969</v>
       </c>
       <c r="T4">
-        <v>0.04546713806758683</v>
+        <v>0.0009300090473601969</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.59447244289348</v>
+        <v>1.250975</v>
       </c>
       <c r="H5">
-        <v>3.59447244289348</v>
+        <v>3.752925</v>
       </c>
       <c r="I5">
-        <v>0.6948728632615261</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="J5">
-        <v>0.6948728632615261</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.1686942107306</v>
+        <v>0.008727</v>
       </c>
       <c r="N5">
-        <v>15.1686942107306</v>
+        <v>0.026181</v>
       </c>
       <c r="O5">
-        <v>0.753243867366462</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P5">
-        <v>0.753243867366462</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q5">
-        <v>54.523453335149</v>
+        <v>0.010917258825</v>
       </c>
       <c r="R5">
-        <v>54.523453335149</v>
+        <v>0.09825532942500001</v>
       </c>
       <c r="S5">
-        <v>0.5234087228511186</v>
+        <v>9.188311805482111E-05</v>
       </c>
       <c r="T5">
-        <v>0.5234087228511186</v>
+        <v>9.188311805482109E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.59447244289348</v>
+        <v>1.250975</v>
       </c>
       <c r="H6">
-        <v>3.59447244289348</v>
+        <v>3.752925</v>
       </c>
       <c r="I6">
-        <v>0.6948728632615261</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="J6">
-        <v>0.6948728632615261</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.945362273403315</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N6">
-        <v>0.945362273403315</v>
+        <v>13.658273</v>
       </c>
       <c r="O6">
-        <v>0.04694460347001523</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P6">
-        <v>0.04694460347001523</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q6">
-        <v>3.398078640299348</v>
+        <v>5.695386022058335</v>
       </c>
       <c r="R6">
-        <v>3.398078640299348</v>
+        <v>51.25847419852501</v>
       </c>
       <c r="S6">
-        <v>0.03262053102788646</v>
+        <v>0.04793417785737657</v>
       </c>
       <c r="T6">
-        <v>0.03262053102788646</v>
+        <v>0.04793417785737656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.59447244289348</v>
+        <v>3.908618333333334</v>
       </c>
       <c r="H7">
-        <v>3.59447244289348</v>
+        <v>11.725855</v>
       </c>
       <c r="I7">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176145</v>
       </c>
       <c r="J7">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176146</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.02376987980892</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N7">
-        <v>4.02376987980892</v>
+        <v>46.980431</v>
       </c>
       <c r="O7">
-        <v>0.1998115291635227</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P7">
-        <v>0.1998115291635227</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q7">
-        <v>14.46332994951797</v>
+        <v>61.20952463816723</v>
       </c>
       <c r="R7">
-        <v>14.46332994951797</v>
+        <v>550.8857217435051</v>
       </c>
       <c r="S7">
-        <v>0.1388436093825209</v>
+        <v>0.5151588020913482</v>
       </c>
       <c r="T7">
-        <v>0.1388436093825209</v>
+        <v>0.5151588020913482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.401294182425593</v>
+        <v>3.908618333333334</v>
       </c>
       <c r="H8">
-        <v>0.401294182425593</v>
+        <v>11.725855</v>
       </c>
       <c r="I8">
-        <v>0.0775770135902885</v>
+        <v>0.7007466875176145</v>
       </c>
       <c r="J8">
-        <v>0.0775770135902885</v>
+        <v>0.7007466875176146</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.1686942107306</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N8">
-        <v>15.1686942107306</v>
+        <v>2.975427</v>
       </c>
       <c r="O8">
-        <v>0.753243867366462</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P8">
-        <v>0.753243867366462</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q8">
-        <v>6.087108741758962</v>
+        <v>3.876602840565</v>
       </c>
       <c r="R8">
-        <v>6.087108741758962</v>
+        <v>34.889425565085</v>
       </c>
       <c r="S8">
-        <v>0.05843440973548949</v>
+        <v>0.03262672087938601</v>
       </c>
       <c r="T8">
-        <v>0.05843440973548949</v>
+        <v>0.03262672087938601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.401294182425593</v>
+        <v>3.908618333333334</v>
       </c>
       <c r="H9">
-        <v>0.401294182425593</v>
+        <v>11.725855</v>
       </c>
       <c r="I9">
-        <v>0.0775770135902885</v>
+        <v>0.7007466875176145</v>
       </c>
       <c r="J9">
-        <v>0.0775770135902885</v>
+        <v>0.7007466875176146</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.945362273403315</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N9">
-        <v>0.945362273403315</v>
+        <v>0.264995</v>
       </c>
       <c r="O9">
-        <v>0.04694460347001523</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P9">
-        <v>0.04694460347001523</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q9">
-        <v>0.3793683806013832</v>
+        <v>0.3452547717472222</v>
       </c>
       <c r="R9">
-        <v>0.3793683806013832</v>
+        <v>3.107292945725</v>
       </c>
       <c r="S9">
-        <v>0.003641822141384076</v>
+        <v>0.002905773826557632</v>
       </c>
       <c r="T9">
-        <v>0.003641822141384076</v>
+        <v>0.002905773826557632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.908618333333334</v>
+      </c>
+      <c r="H10">
+        <v>11.725855</v>
+      </c>
+      <c r="I10">
+        <v>0.7007466875176145</v>
+      </c>
+      <c r="J10">
+        <v>0.7007466875176146</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.008727</v>
+      </c>
+      <c r="N10">
+        <v>0.026181</v>
+      </c>
+      <c r="O10">
+        <v>0.0004096842849061034</v>
+      </c>
+      <c r="P10">
+        <v>0.0004096842849061033</v>
+      </c>
+      <c r="Q10">
+        <v>0.034110512195</v>
+      </c>
+      <c r="R10">
+        <v>0.306994609755</v>
+      </c>
+      <c r="S10">
+        <v>0.0002870849055759746</v>
+      </c>
+      <c r="T10">
+        <v>0.0002870849055759746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.908618333333334</v>
+      </c>
+      <c r="H11">
+        <v>11.725855</v>
+      </c>
+      <c r="I11">
+        <v>0.7007466875176145</v>
+      </c>
+      <c r="J11">
+        <v>0.7007466875176146</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.552757666666667</v>
+      </c>
+      <c r="N11">
+        <v>13.658273</v>
+      </c>
+      <c r="O11">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="P11">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="Q11">
+        <v>17.79499208315723</v>
+      </c>
+      <c r="R11">
+        <v>160.154928748415</v>
+      </c>
+      <c r="S11">
+        <v>0.1497683058147467</v>
+      </c>
+      <c r="T11">
+        <v>0.1497683058147467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.00825</v>
+      </c>
+      <c r="H12">
+        <v>0.02475</v>
+      </c>
+      <c r="I12">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="J12">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.66014366666667</v>
+      </c>
+      <c r="N12">
+        <v>46.980431</v>
+      </c>
+      <c r="O12">
+        <v>0.735156956526318</v>
+      </c>
+      <c r="P12">
+        <v>0.7351569565263179</v>
+      </c>
+      <c r="Q12">
+        <v>0.12919618525</v>
+      </c>
+      <c r="R12">
+        <v>1.16276566725</v>
+      </c>
+      <c r="S12">
+        <v>0.001087356133242384</v>
+      </c>
+      <c r="T12">
+        <v>0.001087356133242383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.00825</v>
+      </c>
+      <c r="H13">
+        <v>0.02475</v>
+      </c>
+      <c r="I13">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="J13">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9918089999999999</v>
+      </c>
+      <c r="N13">
+        <v>2.975427</v>
+      </c>
+      <c r="O13">
+        <v>0.04655993593771484</v>
+      </c>
+      <c r="P13">
+        <v>0.04655993593771483</v>
+      </c>
+      <c r="Q13">
+        <v>0.008182424250000001</v>
+      </c>
+      <c r="R13">
+        <v>0.07364181825</v>
+      </c>
+      <c r="S13">
+        <v>6.886588157237181E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.88658815723718E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.00825</v>
+      </c>
+      <c r="H14">
+        <v>0.02475</v>
+      </c>
+      <c r="I14">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="J14">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.08833166666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.264995</v>
+      </c>
+      <c r="O14">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="P14">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="Q14">
+        <v>0.00072873625</v>
+      </c>
+      <c r="R14">
+        <v>0.00655862625</v>
+      </c>
+      <c r="S14">
+        <v>6.13327575748646E-06</v>
+      </c>
+      <c r="T14">
+        <v>6.13327575748646E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.00825</v>
+      </c>
+      <c r="H15">
+        <v>0.02475</v>
+      </c>
+      <c r="I15">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="J15">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.008727</v>
+      </c>
+      <c r="N15">
+        <v>0.026181</v>
+      </c>
+      <c r="O15">
+        <v>0.0004096842849061034</v>
+      </c>
+      <c r="P15">
+        <v>0.0004096842849061033</v>
+      </c>
+      <c r="Q15">
+        <v>7.199775000000001E-05</v>
+      </c>
+      <c r="R15">
+        <v>0.0006479797500000001</v>
+      </c>
+      <c r="S15">
+        <v>6.059559335336631E-07</v>
+      </c>
+      <c r="T15">
+        <v>6.05955933533663E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.00825</v>
+      </c>
+      <c r="H16">
+        <v>0.02475</v>
+      </c>
+      <c r="I16">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="J16">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.552757666666667</v>
+      </c>
+      <c r="N16">
+        <v>13.658273</v>
+      </c>
+      <c r="O16">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="P16">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="Q16">
+        <v>0.03756025075000001</v>
+      </c>
+      <c r="R16">
+        <v>0.33804225675</v>
+      </c>
+      <c r="S16">
+        <v>0.0003161190010378757</v>
+      </c>
+      <c r="T16">
+        <v>0.0003161190010378757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4099473333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.229842</v>
+      </c>
+      <c r="I17">
+        <v>0.07349636403230622</v>
+      </c>
+      <c r="J17">
+        <v>0.07349636403230624</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.66014366666667</v>
+      </c>
+      <c r="N17">
+        <v>46.980431</v>
+      </c>
+      <c r="O17">
+        <v>0.735156956526318</v>
+      </c>
+      <c r="P17">
+        <v>0.7351569565263179</v>
+      </c>
+      <c r="Q17">
+        <v>6.41983413576689</v>
+      </c>
+      <c r="R17">
+        <v>57.77850722190201</v>
+      </c>
+      <c r="S17">
+        <v>0.05403136329774058</v>
+      </c>
+      <c r="T17">
+        <v>0.05403136329774059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4099473333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.229842</v>
+      </c>
+      <c r="I18">
+        <v>0.07349636403230622</v>
+      </c>
+      <c r="J18">
+        <v>0.07349636403230624</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9918089999999999</v>
+      </c>
+      <c r="N18">
+        <v>2.975427</v>
+      </c>
+      <c r="O18">
+        <v>0.04655993593771484</v>
+      </c>
+      <c r="P18">
+        <v>0.04655993593771483</v>
+      </c>
+      <c r="Q18">
+        <v>0.4065894547260001</v>
+      </c>
+      <c r="R18">
+        <v>3.659305092534</v>
+      </c>
+      <c r="S18">
+        <v>0.003421986000999147</v>
+      </c>
+      <c r="T18">
+        <v>0.003421986000999147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.401294182425593</v>
-      </c>
-      <c r="H10">
-        <v>0.401294182425593</v>
-      </c>
-      <c r="I10">
-        <v>0.0775770135902885</v>
-      </c>
-      <c r="J10">
-        <v>0.0775770135902885</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.02376987980892</v>
-      </c>
-      <c r="N10">
-        <v>4.02376987980892</v>
-      </c>
-      <c r="O10">
-        <v>0.1998115291635227</v>
-      </c>
-      <c r="P10">
-        <v>0.1998115291635227</v>
-      </c>
-      <c r="Q10">
-        <v>1.614715444186647</v>
-      </c>
-      <c r="R10">
-        <v>1.614715444186647</v>
-      </c>
-      <c r="S10">
-        <v>0.01550078171341493</v>
-      </c>
-      <c r="T10">
-        <v>0.01550078171341493</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4099473333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.229842</v>
+      </c>
+      <c r="I19">
+        <v>0.07349636403230622</v>
+      </c>
+      <c r="J19">
+        <v>0.07349636403230624</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08833166666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.264995</v>
+      </c>
+      <c r="O19">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="P19">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="Q19">
+        <v>0.03621133119888889</v>
+      </c>
+      <c r="R19">
+        <v>0.32590198079</v>
+      </c>
+      <c r="S19">
+        <v>0.0003047660656217641</v>
+      </c>
+      <c r="T19">
+        <v>0.0003047660656217642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4099473333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.229842</v>
+      </c>
+      <c r="I20">
+        <v>0.07349636403230622</v>
+      </c>
+      <c r="J20">
+        <v>0.07349636403230624</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.008727</v>
+      </c>
+      <c r="N20">
+        <v>0.026181</v>
+      </c>
+      <c r="O20">
+        <v>0.0004096842849061034</v>
+      </c>
+      <c r="P20">
+        <v>0.0004096842849061033</v>
+      </c>
+      <c r="Q20">
+        <v>0.003577610378000001</v>
+      </c>
+      <c r="R20">
+        <v>0.032198493402</v>
+      </c>
+      <c r="S20">
+        <v>3.011030534177403E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.011030534177403E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4099473333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.229842</v>
+      </c>
+      <c r="I21">
+        <v>0.07349636403230622</v>
+      </c>
+      <c r="J21">
+        <v>0.07349636403230624</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.552757666666667</v>
+      </c>
+      <c r="N21">
+        <v>13.658273</v>
+      </c>
+      <c r="O21">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="P21">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="Q21">
+        <v>1.86639086476289</v>
+      </c>
+      <c r="R21">
+        <v>16.797517782866</v>
+      </c>
+      <c r="S21">
+        <v>0.01570813836260296</v>
+      </c>
+      <c r="T21">
+        <v>0.01570813836260296</v>
       </c>
     </row>
   </sheetData>
